--- a/Files/Excel/Rolls-Royce.xlsx
+++ b/Files/Excel/Rolls-Royce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D5AF11-5133-467E-AFAE-B61D7E1893AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB82B0E8-8035-4F1A-9A3B-3F23B2FE7CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,69 +20,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Rolls-Royce 100EX</t>
-  </si>
-  <si>
-    <t>Rolls-Royce 200EX Concept</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Camargue</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Corniche</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Corniche (2000)</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Cullinan</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Ghost</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Phantom (2003)</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Phantom Drophead Coupé</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Phantom I</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Phantom II</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Phantom III</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Phantom IV</t>
-  </si>
-  <si>
-    <t>Rolls-Royce presidencial</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Silver Cloud</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Silver Seraph</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Silver Shadow</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Silver Spirit</t>
-  </si>
-  <si>
-    <t>Rolls-Royce Silver Wraith</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>Camargue</t>
+  </si>
+  <si>
+    <t>Corniche</t>
+  </si>
+  <si>
+    <t>Cullinan</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>presidencial</t>
+  </si>
+  <si>
+    <t>EX Concept</t>
+  </si>
+  <si>
+    <t>Phantom Drophead Coupé</t>
+  </si>
+  <si>
+    <t>Phantom I</t>
+  </si>
+  <si>
+    <t>Phantom II</t>
+  </si>
+  <si>
+    <t>Phantom III</t>
+  </si>
+  <si>
+    <t>Phantom IV</t>
+  </si>
+  <si>
+    <t>Silver Cloud</t>
+  </si>
+  <si>
+    <t>Silver Seraph</t>
+  </si>
+  <si>
+    <t>Silver Shadow</t>
+  </si>
+  <si>
+    <t>Silver Spirit</t>
+  </si>
+  <si>
+    <t>Silver Wraith</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Rolls-Royce</t>
   </si>
 </sst>
 </file>
@@ -445,175 +448,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>2003</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
